--- a/ESPN sports website/IPL/Kolkata Knight Riders/Pat Cummins.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Pat Cummins.xlsx
@@ -445,31 +445,31 @@
         <v>Pat Cummins</v>
       </c>
       <c r="C2" t="str">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>373.33</v>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 06, 2022</v>
+        <v>April 18, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>Royals won by 7 runs</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 18, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 7 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Pat Cummins</v>
       </c>
       <c r="C4" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>133.33</v>
+        <v>100.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I4" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>April 10, 2022</v>
+        <v>April 15, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Pat Cummins</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D5" t="str">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" t="str">
-        <v>100.00</v>
+        <v>373.33</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>April 15, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Pat Cummins</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>0.00</v>
+        <v>133.33</v>
       </c>
       <c r="H6" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>May 09, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
   </sheetData>
